--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kolanko.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kolanko.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,1017 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:27:32.35</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.47900497685</v>
       </c>
       <c r="B2" t="n">
-        <v>1452.3</v>
+        <v>2089.4</v>
       </c>
       <c r="C2" t="n">
-        <v>14.21</v>
+        <v>12.87</v>
       </c>
       <c r="D2" t="n">
-        <v>3.690788303102764</v>
+        <v>3.482675518308368</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:45:53.95</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.49310335648</v>
       </c>
       <c r="B3" t="n">
-        <v>2553.9</v>
+        <v>3307.5</v>
       </c>
       <c r="C3" t="n">
-        <v>13.75</v>
+        <v>12.04</v>
       </c>
       <c r="D3" t="n">
-        <v>3.379890271595544</v>
+        <v>3.549910613468714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:54:58.65</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.52882673611</v>
       </c>
       <c r="B4" t="n">
-        <v>3098.6</v>
+        <v>6394</v>
       </c>
       <c r="C4" t="n">
-        <v>14.12</v>
+        <v>14.59</v>
       </c>
       <c r="D4" t="n">
-        <v>3.446705307279314</v>
+        <v>3.485374178205217</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:19:16.35</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.47900150463</v>
       </c>
       <c r="B5" t="n">
-        <v>956.3</v>
+        <v>2089.1</v>
       </c>
       <c r="C5" t="n">
-        <v>8.92</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>2.957239730017526</v>
+        <v>2.934395194053651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:22:45.65</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.49310104167</v>
       </c>
       <c r="B6" t="n">
-        <v>1165.6</v>
+        <v>3307.3</v>
       </c>
       <c r="C6" t="n">
-        <v>9.140000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>3.096880299704416</v>
+        <v>3.219711729458401</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:29:50.45</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.51750729167</v>
       </c>
       <c r="B7" t="n">
-        <v>1590.4</v>
+        <v>5416</v>
       </c>
       <c r="C7" t="n">
         <v>9.789999999999999</v>
       </c>
       <c r="D7" t="n">
+        <v>2.881517921175277</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59215335648</v>
+      </c>
+      <c r="B8" t="n">
+        <v>562</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.596183095659528</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59280266204</v>
+      </c>
+      <c r="B9" t="n">
+        <v>618.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.449963876179286</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.5941244213</v>
+      </c>
+      <c r="B10" t="n">
+        <v>732.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.008010251181468</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59280034722</v>
+      </c>
+      <c r="B11" t="n">
+        <v>617.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.296086515699114</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59403761574</v>
+      </c>
+      <c r="B12" t="n">
+        <v>724.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.596917390823366</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59412210648</v>
+      </c>
+      <c r="B13" t="n">
+        <v>732.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.946478349821909</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.5991417824</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1165.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.213301862989153</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60245775463</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1452.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.690788303102764</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60405729167</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1590.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.230537108012609</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59671701389</v>
+      </c>
+      <c r="B17" t="n">
+        <v>956.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.957239730017526</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.59913946759</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1165.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.096880299704416</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60405613426</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1590.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D19" t="n">
         <v>3.15067059653146</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:33:22.47</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.64817673611</v>
+      </c>
+      <c r="B20" t="n">
         <v>1117.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" t="n">
         <v>13.82</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D20" t="n">
         <v>3.76764794758388</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:43:35.87</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.65527627315</v>
+      </c>
+      <c r="B21" t="n">
         <v>1730.8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C21" t="n">
         <v>13.3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>3.434327329908097</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:46:05.77</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.65701122685</v>
+      </c>
+      <c r="B22" t="n">
         <v>1880.7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C22" t="n">
         <v>14.99</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D22" t="n">
         <v>3.497796637671334</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:26:47.87</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>722.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.157785143171039</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:33:22.17</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64689085648</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1006.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.99323902811323</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.64817326389</v>
+      </c>
+      <c r="B24" t="n">
         <v>1117.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C24" t="n">
         <v>9.08</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D24" t="n">
         <v>3.41945140702384</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:35:19.37</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.64952974537</v>
+      </c>
+      <c r="B25" t="n">
         <v>1234.3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C25" t="n">
         <v>9.26</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D25" t="n">
         <v>3.240590572357179</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.66956909722</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2965.7</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.408025537218367</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.67857372685</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3743.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.41138824394771</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.6805181713</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3911.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.357474974223547</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66956446759</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2965.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.642762865339007</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.67559456018</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3486.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.744750993592396</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.67892789352</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3774.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.544219238417492</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47355208333</v>
+      </c>
+      <c r="B32" t="n">
+        <v>962.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.332717248371668</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47459375</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1052.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.75871709414891</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.47698263889</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1259.2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.433707782200405</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47354976852</v>
+      </c>
+      <c r="B35" t="n">
+        <v>962.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.454977512359618</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.47459259259</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1052.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.665843401636397</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.47698148148</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1259.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.390908922467914</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49112384259</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2481</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.74638840130397</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.49215740741</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2570.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.760291644505095</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.49895949074</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.908079658235821</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49112152778</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2480.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.863053560256956</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45686.49215625</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2570.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.779544966561456</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45686.49895833333</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3157.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.885438987186976</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
